--- a/fractals_3d/data/data_13.xlsx
+++ b/fractals_3d/data/data_13.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>X</t>
   </si>
@@ -63,10 +63,16 @@
     <t>EEEA</t>
   </si>
   <si>
-    <t>"A": "[++++++++++++++EC]B^+B[--------------ED]B+BA", "C": "[---------EE][+++++++++EE]B__+C", "D": "[---------EE][+++++++++EE]B__-D"</t>
-  </si>
-  <si>
     <t>#C5E384</t>
+  </si>
+  <si>
+    <t>A: [++++++++++++++EC]B^+B[--------------ED]B+BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C: [---------EE][+++++++++EE]B__+C</t>
+  </si>
+  <si>
+    <t>D: [---------EE][+++++++++EE]B__-D</t>
   </si>
 </sst>
 </file>
@@ -894,15 +900,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -943,7 +949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -957,7 +963,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1">
         <v>5</v>
@@ -972,13 +978,23 @@
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1">
         <v>2</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/fractals_3d/data/data_13.xlsx
+++ b/fractals_3d/data/data_13.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>X</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>D: [---------EE][+++++++++EE]B__-D</t>
+  </si>
+  <si>
+    <t>Constants</t>
   </si>
 </sst>
 </file>
@@ -900,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,7 +914,7 @@
     <col min="5" max="5" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -948,8 +951,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -987,12 +993,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>17</v>
       </c>
